--- a/dados_date_buy.xlsx
+++ b/dados_date_buy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\airflow_steam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C30E8830-931C-475B-8A65-E8BB23B12E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D1F5B2-5618-4F3D-9B35-4A0150DC5E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D49BBD88-282F-4536-A7B3-F8D137E8617D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>M4A4 - Dragon King (MW)</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>date_buy</t>
+  </si>
+  <si>
+    <t>Butterfly - Forest DDPAT (FT)</t>
   </si>
 </sst>
 </file>
@@ -77,10 +80,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,19 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71CF1C2-ABED-42FD-B662-469C4C752282}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -445,7 +457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -453,7 +465,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -461,7 +473,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -469,7 +481,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -477,7 +489,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -485,7 +497,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -493,7 +505,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -501,7 +513,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -509,7 +521,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -517,7 +529,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -525,7 +537,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -533,7 +545,7 @@
         <v>44358</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -541,12 +553,21 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>44506</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45323</v>
       </c>
     </row>
   </sheetData>
